--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_ATVietNam.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_ATVietNam.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="76">
   <si>
     <t>STT</t>
   </si>
@@ -235,6 +235,33 @@
   </si>
   <si>
     <t>TG102SE</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liên tục</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GSM</t>
+  </si>
+  <si>
+    <t>Thay module GSM</t>
   </si>
 </sst>
 </file>
@@ -664,6 +691,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -707,9 +737,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1018,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1051,43 +1078,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1132,58 +1159,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="81" t="s">
+      <c r="K4" s="76"/>
+      <c r="L4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
@@ -1214,17 +1241,17 @@
       <c r="K5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1238,7 +1265,7 @@
       <c r="D6" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="90">
+      <c r="E6" s="75">
         <v>868183034557574</v>
       </c>
       <c r="F6" s="64"/>
@@ -1246,19 +1273,35 @@
         <v>65</v>
       </c>
       <c r="H6" s="64"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="37"/>
+      <c r="I6" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>67</v>
+      </c>
       <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
+      <c r="L6" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>71</v>
+      </c>
       <c r="N6" s="70"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="64"/>
+      <c r="O6" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>23</v>
+      </c>
       <c r="S6" s="72"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1277,7 +1320,7 @@
       <c r="D7" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="90">
+      <c r="E7" s="75">
         <v>868183034726468</v>
       </c>
       <c r="F7" s="64"/>
@@ -1285,19 +1328,29 @@
         <v>65</v>
       </c>
       <c r="H7" s="64"/>
-      <c r="I7" s="68"/>
+      <c r="I7" s="68" t="s">
+        <v>68</v>
+      </c>
       <c r="J7" s="37"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="K7" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="69" t="s">
+        <v>75</v>
+      </c>
       <c r="N7" s="70"/>
       <c r="O7" s="69"/>
-      <c r="P7" s="70"/>
+      <c r="P7" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="Q7" s="71"/>
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1326,7 +1379,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1355,7 +1408,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1384,7 +1437,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1413,7 +1466,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1442,7 +1495,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1473,7 +1526,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1502,7 +1555,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1531,7 +1584,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1560,7 +1613,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1679,7 +1732,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2052,7 +2105,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -2212,7 +2265,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2849,43 +2902,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -2930,58 +2983,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="81" t="s">
+      <c r="K4" s="76"/>
+      <c r="L4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3012,17 +3065,17 @@
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3036,7 +3089,7 @@
       <c r="D6" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="90">
+      <c r="E6" s="75">
         <v>862846048282084</v>
       </c>
       <c r="F6" s="64"/>
@@ -3056,7 +3109,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="72"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3087,7 +3140,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3116,7 +3169,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3145,7 +3198,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3174,7 +3227,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3203,7 +3256,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3232,7 +3285,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3263,7 +3316,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3292,7 +3345,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3321,7 +3374,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3350,7 +3403,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4639,43 +4692,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -4720,58 +4773,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -4796,23 +4849,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4838,7 +4891,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4869,7 +4922,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4898,7 +4951,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4927,7 +4980,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -4956,7 +5009,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4985,7 +5038,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5014,7 +5067,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5045,7 +5098,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5074,7 +5127,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5103,7 +5156,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5132,7 +5185,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_ATVietNam.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_ATVietNam.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>Thay module GSM</t>
+  </si>
+  <si>
+    <t>Imei mới: 868183038053596</t>
   </si>
 </sst>
 </file>
@@ -694,6 +697,30 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -711,30 +738,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1045,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1078,43 +1081,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1159,58 +1162,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="82" t="s">
+      <c r="K4" s="84"/>
+      <c r="L4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="82" t="s">
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
@@ -1241,17 +1244,17 @@
       <c r="K5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="89"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1261,7 +1264,9 @@
       <c r="B6" s="67">
         <v>44977</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="67">
+        <v>44979</v>
+      </c>
       <c r="D6" s="64" t="s">
         <v>44</v>
       </c>
@@ -1301,7 +1306,7 @@
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1316,7 +1321,9 @@
       <c r="B7" s="67">
         <v>44977</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="67">
+        <v>44979</v>
+      </c>
       <c r="D7" s="64" t="s">
         <v>44</v>
       </c>
@@ -1327,7 +1334,9 @@
       <c r="G7" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="64"/>
+      <c r="H7" s="64" t="s">
+        <v>76</v>
+      </c>
       <c r="I7" s="68" t="s">
         <v>68</v>
       </c>
@@ -1350,7 +1359,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1379,7 +1388,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1408,7 +1417,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1437,7 +1446,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1466,7 +1475,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1495,7 +1504,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1526,7 +1535,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1555,7 +1564,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1584,7 +1593,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1613,7 +1622,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2841,13 +2850,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2859,6 +2861,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2870,7 +2879,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2902,43 +2911,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -2983,58 +2992,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="82" t="s">
+      <c r="K4" s="84"/>
+      <c r="L4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="82" t="s">
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3065,17 +3074,17 @@
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="89"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3085,7 +3094,9 @@
       <c r="B6" s="67">
         <v>44977</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="67">
+        <v>44979</v>
+      </c>
       <c r="D6" s="64" t="s">
         <v>66</v>
       </c>
@@ -3109,7 +3120,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="72"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3140,7 +3151,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3169,7 +3180,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3198,7 +3209,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3227,7 +3238,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3256,7 +3267,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3285,7 +3296,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3316,7 +3327,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3345,7 +3356,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3374,7 +3385,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3403,7 +3414,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4631,13 +4642,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4649,6 +4653,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4692,43 +4703,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -4773,58 +4784,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -4849,23 +4860,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="84"/>
       <c r="P5" s="90"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="89"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4891,7 +4902,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4922,7 +4933,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4951,7 +4962,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4980,7 +4991,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5009,7 +5020,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5038,7 +5049,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5067,7 +5078,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5098,7 +5109,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5127,7 +5138,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5156,7 +5167,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5185,7 +5196,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6416,6 +6427,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6427,13 +6445,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_ATVietNam.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_ATVietNam.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -697,6 +697,30 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -712,32 +736,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1048,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="M3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1081,43 +1081,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1162,58 +1162,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="81" t="s">
+      <c r="K4" s="76"/>
+      <c r="L4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
@@ -1244,17 +1244,17 @@
       <c r="K5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1271,7 +1271,7 @@
         <v>44</v>
       </c>
       <c r="E6" s="75">
-        <v>868183034557574</v>
+        <v>868183034726468</v>
       </c>
       <c r="F6" s="64"/>
       <c r="G6" s="64" t="s">
@@ -1279,9 +1279,9 @@
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="64" t="s">
         <v>67</v>
       </c>
       <c r="K6" s="69"/>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1328,7 +1328,7 @@
         <v>44</v>
       </c>
       <c r="E7" s="75">
-        <v>868183034726468</v>
+        <v>868183034557574</v>
       </c>
       <c r="F7" s="64"/>
       <c r="G7" s="64" t="s">
@@ -1338,10 +1338,10 @@
         <v>76</v>
       </c>
       <c r="I7" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64" t="s">
         <v>67</v>
       </c>
       <c r="L7" s="69" t="s">
@@ -1351,15 +1351,21 @@
         <v>75</v>
       </c>
       <c r="N7" s="70"/>
-      <c r="O7" s="69"/>
+      <c r="O7" s="69" t="s">
+        <v>72</v>
+      </c>
       <c r="P7" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="64"/>
+      <c r="Q7" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>35</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1388,7 +1394,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1401,7 +1407,7 @@
       <c r="B9" s="59"/>
       <c r="C9" s="63"/>
       <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="49"/>
       <c r="G9" s="37"/>
       <c r="H9" s="1"/>
@@ -1417,7 +1423,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1446,7 +1452,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1475,7 +1481,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1504,7 +1510,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1535,7 +1541,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1564,7 +1570,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1593,7 +1599,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1622,7 +1628,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1773,7 +1779,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1954,7 +1960,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -2274,7 +2280,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2850,6 +2856,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2861,13 +2874,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2911,43 +2917,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -2992,58 +2998,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="81" t="s">
+      <c r="K4" s="76"/>
+      <c r="L4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3074,17 +3080,17 @@
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3120,7 +3126,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="72"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3151,7 +3157,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3180,7 +3186,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3209,7 +3215,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3238,7 +3244,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3267,7 +3273,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3296,7 +3302,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3327,7 +3333,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3356,7 +3362,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3385,7 +3391,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3414,7 +3420,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4642,6 +4648,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4653,13 +4666,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4703,43 +4709,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -4784,58 +4790,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -4860,23 +4866,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="84"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
       <c r="P5" s="90"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="83"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4902,7 +4908,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4933,7 +4939,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4962,7 +4968,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4991,7 +4997,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5020,7 +5026,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5049,7 +5055,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5078,7 +5084,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5109,7 +5115,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5138,7 +5144,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5167,7 +5173,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5196,7 +5202,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6427,13 +6433,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6445,6 +6444,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
